--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Новороссийск/дв 08,08,25 нррсч пок зпф.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/08,25/08,08,25 ПОКОМ ЗПФ Новороссийск/дв 08,08,25 нррсч пок зпф.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\08,08,25 ПОКОМ ЗПФ Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\08,25\08,08,25 ПОКОМ ЗПФ Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCA7021-5DC6-4F5E-B958-FE005D005C52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C5696C-04C1-46E7-8E45-225B7B7394BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,20 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AO$75</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="132">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -421,6 +413,12 @@
   </si>
   <si>
     <t>Чебуреки сочные ВЕС ТМ Зареченские  ПОКОМ</t>
+  </si>
+  <si>
+    <t>16,08,</t>
+  </si>
+  <si>
+    <t>с 14,08,25 снова в бланке</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1249,9 @@
       <c r="AH4" s="23"/>
       <c r="AI4" s="23"/>
       <c r="AJ4" s="7"/>
-      <c r="AK4" s="9"/>
+      <c r="AK4" s="9" t="s">
+        <v>130</v>
+      </c>
       <c r="AL4" s="23"/>
       <c r="AM4" s="23"/>
       <c r="AN4" s="23"/>
@@ -2013,7 +2013,7 @@
         <v>43.6</v>
       </c>
       <c r="Q11" s="4">
-        <f t="shared" ref="Q10:Q13" si="6">20*P11-F11</f>
+        <f t="shared" ref="Q11:Q13" si="6">20*P11-F11</f>
         <v>812</v>
       </c>
       <c r="R11" s="4">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="28">
-        <f t="shared" ref="Q15:Q17" si="7">20*P15-F15</f>
+        <f t="shared" ref="Q15" si="7">20*P15-F15</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
@@ -2680,7 +2680,7 @@
         <v>13.6</v>
       </c>
       <c r="AH16" s="21" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="AI16" s="23">
         <f>G16*Q16</f>
@@ -3367,7 +3367,7 @@
         <v>8.14</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" ref="Q22:Q75" si="9">20*P22-F22</f>
+        <f t="shared" ref="Q22:Q74" si="9">20*P22-F22</f>
         <v>103.60000000000001</v>
       </c>
       <c r="R22" s="4">
@@ -6645,7 +6645,7 @@
         <v>6.8</v>
       </c>
       <c r="AH47" s="21" t="s">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="AI47" s="23">
         <f t="shared" si="11"/>
@@ -7566,11 +7566,11 @@
         <v>16</v>
       </c>
       <c r="AK54" s="9">
-        <f t="shared" ref="AK54:AK85" si="21">MROUND(Q54, AJ54*AM54)/AJ54</f>
+        <f t="shared" ref="AK54:AK75" si="21">MROUND(Q54, AJ54*AM54)/AJ54</f>
         <v>0</v>
       </c>
       <c r="AL54" s="23">
-        <f t="shared" ref="AL54:AL85" si="22">AK54*AJ54*G54</f>
+        <f t="shared" ref="AL54:AL75" si="22">AK54*AJ54*G54</f>
         <v>0</v>
       </c>
       <c r="AM54" s="23">
@@ -7580,7 +7580,7 @@
         <v>84</v>
       </c>
       <c r="AO54" s="9">
-        <f t="shared" ref="AO54:AO85" si="23">AK54/AN54</f>
+        <f t="shared" ref="AO54:AO75" si="23">AK54/AN54</f>
         <v>0</v>
       </c>
       <c r="AP54" s="23"/>
@@ -9535,7 +9535,7 @@
         <v>17</v>
       </c>
       <c r="L70" s="23">
-        <f t="shared" ref="L70:L101" si="24">E70-K70</f>
+        <f t="shared" ref="L70:L75" si="24">E70-K70</f>
         <v>-3</v>
       </c>
       <c r="M70" s="23"/>
